--- a/datasets/경기종합_지수.xlsx
+++ b/datasets/경기종합_지수.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="116">
   <si>
     <t/>
   </si>
@@ -170,6 +170,27 @@
     <t>202403월</t>
   </si>
   <si>
+    <t>202404월</t>
+  </si>
+  <si>
+    <t>202405월</t>
+  </si>
+  <si>
+    <t>202406월</t>
+  </si>
+  <si>
+    <t>202407월</t>
+  </si>
+  <si>
+    <t>202408월</t>
+  </si>
+  <si>
+    <t>202409월</t>
+  </si>
+  <si>
+    <t>202410월</t>
+  </si>
+  <si>
     <t>동행지수순환변동치</t>
   </si>
   <si>
@@ -260,19 +281,25 @@
     <t>100.1</t>
   </si>
   <si>
+    <t>99.7</t>
+  </si>
+  <si>
+    <t>99.1</t>
+  </si>
+  <si>
+    <t>99.0</t>
+  </si>
+  <si>
+    <t>98.3</t>
+  </si>
+  <si>
     <t>선행지수순환변동치</t>
   </si>
   <si>
-    <t>99.1</t>
-  </si>
-  <si>
     <t>98.8</t>
   </si>
   <si>
     <t>98.7</t>
-  </si>
-  <si>
-    <t>99.0</t>
   </si>
   <si>
     <t>101.6</t>
@@ -477,22 +504,29 @@
     <col min="50" max="50" width="18.52734375" customWidth="true" bestFit="true"/>
     <col min="51" max="51" width="18.52734375" customWidth="true" bestFit="true"/>
     <col min="52" max="52" width="18.52734375" customWidth="true" bestFit="true"/>
+    <col min="53" max="53" width="18.52734375" customWidth="true" bestFit="true"/>
+    <col min="54" max="54" width="18.52734375" customWidth="true" bestFit="true"/>
+    <col min="55" max="55" width="18.52734375" customWidth="true" bestFit="true"/>
+    <col min="56" max="56" width="18.52734375" customWidth="true" bestFit="true"/>
+    <col min="57" max="57" width="18.52734375" customWidth="true" bestFit="true"/>
+    <col min="58" max="58" width="18.52734375" customWidth="true" bestFit="true"/>
+    <col min="59" max="59" width="18.52734375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="3">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="3">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3">
@@ -652,337 +686,400 @@
       <c r="AZ3" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="BA3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN4" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA4" s="2" t="s">
+      <c r="AO4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BC4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BD4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BE4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF4" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="AB4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD4" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE4" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH4" s="2" t="s">
+      <c r="BG4" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="AI4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AJ4" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AL4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AM4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AO4" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ4" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AR4" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AT4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AU4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AV4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AW4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AX4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AY4" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AZ4" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y5" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="Z5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AM5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO5" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AQ5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AR5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AV5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW5" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="O5" s="2" t="s">
+      <c r="AX5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA5" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="P5" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="W5" s="2" t="s">
+      <c r="BB5" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="X5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y5" s="2" t="s">
+      <c r="BC5" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="Z5" s="2" t="s">
+      <c r="BD5" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AA5" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB5" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC5" s="2" t="s">
+      <c r="BE5" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AD5" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE5" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AH5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AI5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ5" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AK5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL5" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM5" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AN5" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AO5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AP5" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AQ5" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AR5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AT5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AU5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AV5" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AW5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AX5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AY5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AZ5" s="2" t="s">
-        <v>77</v>
+      <c r="BF5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG5" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="3">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="3">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
